--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_IDEFICS_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_IDEFICS_TRACY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7A48F-D24A-4E70-8B88-4DE617303152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6415B0CF-4691-4649-B83F-69A2A1FE5872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
   <si>
     <t>index</t>
   </si>
@@ -451,15 +451,9 @@
     <t>recode</t>
   </si>
   <si>
-    <t>phys_activ</t>
-  </si>
-  <si>
     <t>operation</t>
   </si>
   <si>
-    <t>phys_activ/7</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
@@ -478,14 +472,53 @@
     <t>recode(0=0;1=1;2=1;)</t>
   </si>
   <si>
-    <t>recode(0=0;1=1;2=2;3=3;4=4;5=5;6=6;)</t>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>occupst_1;occupst_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+If either parent is "fully employed (100%)," assign 1L.
+If either parent works "more than half day," "half day," or "less than half day,"  assign 2L.
+If both parents are "not at all employed," assign 5L.
+If one parent's status is NA, use the other parent's status to determine the category.
+If both are NA, assign 7L ("other").</t>
+  </si>
+  <si>
+    <t>SED;LPA;MPA;VPA</t>
+  </si>
+  <si>
+    <t>chdiabet</t>
+  </si>
+  <si>
+    <t>recode(0=0;1=1;2=2;3=3;4=4;5=5;6=7;)</t>
+  </si>
+  <si>
+    <t>case_when(
+      occupst_1 == c(1)|occupst_2== c(1) ~ 1L,
+      occupst_1==c(2)|occupst_2==c(2) ~ 2L,  
+      occupst_1 == c(4)&amp;occupst_2==(4)~ 3L,
+     occupst_1 == c(5)&amp;occupst_2== c(5) ~ 4L,                                                                                                    occupst_1 %in% c(7,8,9) &amp;occupst_2%in%c(7,8,9) ~ 5L,                                                                                            occupst_1 ==c(3)&amp; occupst_2==c(3)~ 6L,                                                                                        occupst_1 ==c(6,10) &amp;  occupst_2==c(6,10) ~ 7L,                                                                                  is.na(occupst_1)&amp;occupst_2== c(5) ~ 5L,
+      is.na(occupst_2) &amp; occupst_1== c(5) ~ 5L,
+      is.na(occupst_1) &amp; is.na(occupst_2) ~ 7L,
+      TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>((1.5 * SED)/60 + (1.5 * LPA)/60 + (3 * MPA)/60 + (6 * VPA)/60) / 7</t>
+  </si>
+  <si>
+    <t>phys_activ;leis_activ</t>
+  </si>
+  <si>
+    <t>(4 * phys_activ + 1.5 * leis_activ) / 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +554,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,6 +598,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,7 +952,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,10 +961,10 @@
     <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1047,7 +1099,7 @@
         <v>142</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>135</v>
@@ -1067,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>135</v>
@@ -1093,19 +1145,19 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1115,18 +1167,23 @@
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>150</v>
+      <c r="H8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1140,13 +1197,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>135</v>
@@ -1155,27 +1212,30 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,17 +1248,18 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="11"/>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1211,17 +1272,18 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
+      <c r="F12" s="11"/>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1234,17 +1296,18 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="F13" s="11"/>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1258,19 +1321,19 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1284,16 +1347,16 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1307,16 +1370,16 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1330,16 +1393,16 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1353,16 +1416,16 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1376,16 +1439,16 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1398,17 +1461,20 @@
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F20" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1422,16 +1488,16 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -1445,16 +1511,16 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1468,16 +1534,16 @@
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -1491,16 +1557,16 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -1514,16 +1580,16 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -1537,16 +1603,16 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -1560,16 +1626,16 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1583,16 +1649,16 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -1606,16 +1672,16 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -1629,16 +1695,16 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1652,16 +1718,16 @@
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1675,16 +1741,16 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1698,16 +1764,16 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1721,16 +1787,16 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1744,16 +1810,16 @@
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1767,16 +1833,16 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1790,16 +1856,16 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -1813,16 +1879,16 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -1836,16 +1902,16 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -1859,16 +1925,16 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -1882,16 +1948,16 @@
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1905,16 +1971,16 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -1928,16 +1994,16 @@
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -1951,16 +2017,16 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -1974,16 +2040,16 @@
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -1997,16 +2063,16 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -2020,16 +2086,16 @@
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -2043,16 +2109,16 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2066,16 +2132,16 @@
         <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2089,16 +2155,16 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2112,16 +2178,16 @@
         <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2135,16 +2201,16 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2158,16 +2224,16 @@
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2181,16 +2247,16 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2204,16 +2270,16 @@
         <v>121</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2227,16 +2293,16 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -2250,16 +2316,16 @@
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -2273,16 +2339,16 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -2296,16 +2362,16 @@
         <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -2319,16 +2385,16 @@
         <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -2342,16 +2408,16 @@
         <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_IDEFICS_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_IDEFICS_TRACY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6415B0CF-4691-4649-B83F-69A2A1FE5872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758C5A3-1F95-41A7-8F85-7D38A68BEF4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,13 +505,13 @@
       TRUE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>((1.5 * SED)/60 + (1.5 * LPA)/60 + (3 * MPA)/60 + (6 * VPA)/60) / 7</t>
-  </si>
-  <si>
     <t>phys_activ;leis_activ</t>
   </si>
   <si>
     <t>(4 * phys_activ + 1.5 * leis_activ) / 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((1.5 * SED)/60 + (1.5 * LPA)/60 + (3 * MPA)/60 + (6 * VPA)/60) </t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>135</v>
@@ -1229,7 +1229,7 @@
         <v>143</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>135</v>
